--- a/credit_app/bank_statement_functions/Named_Entity_Recognition/NER_resp.xlsx
+++ b/credit_app/bank_statement_functions/Named_Entity_Recognition/NER_resp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="153">
   <si>
     <t>ac_open_date</t>
   </si>
@@ -34,94 +34,97 @@
     <t>joint_holders</t>
   </si>
   <si>
-    <t>196-04-20</t>
-  </si>
-  <si>
-    <t>wed oct 03</t>
-  </si>
-  <si>
-    <t>2021-04-15</t>
-  </si>
-  <si>
-    <t>Open</t>
+    <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>28/08/2017</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>01 /12 /2020</t>
+  </si>
+  <si>
+    <t>01/12/2019</t>
+  </si>
+  <si>
+    <t>12 marina boulevard</t>
+  </si>
+  <si>
+    <t>04/07/2020</t>
+  </si>
+  <si>
+    <t>07-07-2020</t>
+  </si>
+  <si>
+    <t>01-04-2020</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>12 marina boulevard</t>
-  </si>
-  <si>
-    <t>A/C</t>
-  </si>
-  <si>
-    <t>201-04-20</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>01-07-2020</t>
   </si>
   <si>
     <t>period june 22</t>
   </si>
   <si>
-    <t>2045-04-20</t>
-  </si>
-  <si>
-    <t>2021-01-23</t>
-  </si>
-  <si>
-    <t>interest may be</t>
-  </si>
-  <si>
-    <t>2019-09-15</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2021-04-11</t>
-  </si>
-  <si>
-    <t>2021-04-02</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>229-08-20</t>
+    <t>04-03-2020</t>
+  </si>
+  <si>
+    <t>01-06-2020</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>15/09/2019</t>
+  </si>
+  <si>
+    <t>20 /09 /01</t>
+  </si>
+  <si>
+    <t>26/05/2018</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>01-05-2020</t>
   </si>
   <si>
     <t>Joint</t>
   </si>
   <si>
-    <t>2018-12-01</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>amount marked as</t>
-  </si>
-  <si>
-    <t>vikas marg city</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>409-04-20</t>
-  </si>
-  <si>
-    <t>2020-11-01</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
+    <t>nagar marg near</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>07 apr 2018</t>
+  </si>
+  <si>
+    <t>28-08-2020</t>
+  </si>
+  <si>
+    <t>20/11/01</t>
+  </si>
+  <si>
+    <t>08 /02 /2021</t>
+  </si>
+  <si>
+    <t>15 mar 2020</t>
   </si>
   <si>
     <t>Blue Cap</t>
@@ -136,18 +139,24 @@
     <t>Ravinder C/O</t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>Bahadurgarh Branch</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Molagavalli Raghava</t>
+  </si>
+  <si>
+    <t>Rahul Address</t>
+  </si>
+  <si>
+    <t>Name Serventure</t>
+  </si>
+  <si>
+    <t>- Pavani</t>
   </si>
   <si>
     <t>Of Customer</t>
   </si>
   <si>
+    <t>- -</t>
+  </si>
+  <si>
     <t>Market Yard</t>
   </si>
   <si>
@@ -175,7 +184,7 @@
     <t>Sunil Bapu</t>
   </si>
   <si>
-    <t>Laheriasarai Branch</t>
+    <t>Vikas Chandra</t>
   </si>
   <si>
     <t>USHA</t>
@@ -184,7 +193,10 @@
     <t>Ms Nimisha</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>31920210000502</t>
+  </si>
+  <si>
+    <t>3492753304</t>
   </si>
   <si>
     <t>00000032338792461</t>
@@ -196,12 +208,15 @@
     <t>50454281254</t>
   </si>
   <si>
-    <t>Account</t>
+    <t>50200053222377</t>
   </si>
   <si>
     <t>50180024860514</t>
   </si>
   <si>
+    <t>05300900590397</t>
+  </si>
+  <si>
     <t>0169102000013572</t>
   </si>
   <si>
@@ -211,6 +226,9 @@
     <t>063110110011928</t>
   </si>
   <si>
+    <t>3213808715</t>
+  </si>
+  <si>
     <t>50196474496</t>
   </si>
   <si>
@@ -223,15 +241,27 @@
     <t>913010023484577</t>
   </si>
   <si>
+    <t>915010030499067</t>
+  </si>
+  <si>
     <t>50193511397</t>
   </si>
   <si>
+    <t>4564005500000135</t>
+  </si>
+  <si>
     <t>42710100008344</t>
   </si>
   <si>
+    <t>916010026741788</t>
+  </si>
+  <si>
     <t>2518000102119105</t>
   </si>
   <si>
+    <t>1181010009</t>
+  </si>
+  <si>
     <t>20174847324</t>
   </si>
   <si>
@@ -247,6 +277,9 @@
     <t>912010004084621</t>
   </si>
   <si>
+    <t>918010030828217</t>
+  </si>
+  <si>
     <t>201001939171</t>
   </si>
   <si>
@@ -259,9 +292,15 @@
     <t>2407000400310052</t>
   </si>
   <si>
+    <t>00421060004144</t>
+  </si>
+  <si>
     <t>348801507983</t>
   </si>
   <si>
+    <t>916010035585173</t>
+  </si>
+  <si>
     <t>00000020284343910</t>
   </si>
   <si>
@@ -418,9 +457,6 @@
     <t>ALLA0211950</t>
   </si>
   <si>
-    <t>IFSC</t>
-  </si>
-  <si>
     <t>BKID0000071</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
   </si>
   <si>
     <t>Individual Account</t>
+  </si>
+  <si>
+    <t>Joint Account</t>
   </si>
 </sst>
 </file>
@@ -825,19 +864,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -848,19 +887,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -871,19 +910,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -894,19 +933,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -917,19 +956,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -937,22 +976,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -960,22 +999,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -983,22 +1022,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1006,22 +1045,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1029,22 +1068,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1052,22 +1091,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1075,22 +1114,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1098,22 +1137,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1121,22 +1160,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1144,22 +1183,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1167,22 +1206,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1190,22 +1229,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1213,22 +1252,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1236,22 +1275,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1259,22 +1298,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1285,19 +1324,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1305,22 +1344,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1328,22 +1367,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1351,22 +1390,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1374,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1397,22 +1436,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1420,22 +1459,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1443,22 +1482,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1466,22 +1505,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1489,22 +1528,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1512,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1535,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1558,22 +1597,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1581,22 +1620,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1604,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1627,22 +1666,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1650,22 +1689,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1673,22 +1712,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1696,22 +1735,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,22 +1758,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/credit_app/bank_statement_functions/Named_Entity_Recognition/NER_resp.xlsx
+++ b/credit_app/bank_statement_functions/Named_Entity_Recognition/NER_resp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="162">
   <si>
     <t>ac_open_date</t>
   </si>
@@ -40,7 +40,7 @@
     <t>01/04/2018</t>
   </si>
   <si>
-    <t>2021-04-13</t>
+    <t>2021-05-13</t>
   </si>
   <si>
     <t>28/08/2017</t>
@@ -100,7 +100,7 @@
     <t>01-05-2020</t>
   </si>
   <si>
-    <t>Joint</t>
+    <t>01/12/19</t>
   </si>
   <si>
     <t>nagar marg near</t>
@@ -127,70 +127,94 @@
     <t>15 mar 2020</t>
   </si>
   <si>
-    <t>Blue Cap</t>
-  </si>
-  <si>
-    <t>Ms Shruti</t>
-  </si>
-  <si>
-    <t>RAJESH</t>
-  </si>
-  <si>
-    <t>Ravinder C/O</t>
-  </si>
-  <si>
-    <t>Molagavalli Raghava</t>
-  </si>
-  <si>
-    <t>Rahul Address</t>
-  </si>
-  <si>
-    <t>Name Serventure</t>
-  </si>
-  <si>
-    <t>- Pavani</t>
-  </si>
-  <si>
-    <t>Of Customer</t>
-  </si>
-  <si>
-    <t>- -</t>
-  </si>
-  <si>
-    <t>Market Yard</t>
-  </si>
-  <si>
-    <t>GIRISH</t>
-  </si>
-  <si>
-    <t>Aayush Toys</t>
-  </si>
-  <si>
-    <t>KAUR</t>
-  </si>
-  <si>
-    <t>You Can</t>
-  </si>
-  <si>
-    <t>MR.</t>
-  </si>
-  <si>
-    <t>Hemant Bhatt</t>
-  </si>
-  <si>
-    <t>RAI</t>
-  </si>
-  <si>
-    <t>Sunil Bapu</t>
-  </si>
-  <si>
-    <t>Vikas Chandra</t>
-  </si>
-  <si>
-    <t>USHA</t>
-  </si>
-  <si>
-    <t>Ms Nimisha</t>
+    <t>r address po-m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shruti sharma </t>
+  </si>
+  <si>
+    <t>rajesh kumar s</t>
+  </si>
+  <si>
+    <t>ravinder c/o m</t>
+  </si>
+  <si>
+    <t>MR MOLAGAVALLI</t>
+  </si>
+  <si>
+    <t>bahadurgarh br</t>
+  </si>
+  <si>
+    <t>serventure sol</t>
+  </si>
+  <si>
+    <t>- pavani vadal</t>
+  </si>
+  <si>
+    <t>of customer ch</t>
+  </si>
+  <si>
+    <t>- - wz 1 upper</t>
+  </si>
+  <si>
+    <t>sagar jotiba r</t>
+  </si>
+  <si>
+    <t>- - 45-gopi bu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- - moto madh </t>
+  </si>
+  <si>
+    <t>girish kumar s</t>
+  </si>
+  <si>
+    <t>- satwinder ka</t>
+  </si>
+  <si>
+    <t>you can bank u</t>
+  </si>
+  <si>
+    <t>MR. BALACHANDER</t>
+  </si>
+  <si>
+    <t>hemant bhatt j</t>
+  </si>
+  <si>
+    <t>- - j no 229 8</t>
+  </si>
+  <si>
+    <t>sanjaykumar an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about lottery </t>
+  </si>
+  <si>
+    <t>- - sarkapar k</t>
+  </si>
+  <si>
+    <t>- - hno-816 ma</t>
+  </si>
+  <si>
+    <t>- - c/o-subasi</t>
+  </si>
+  <si>
+    <t>- - h no 409 b</t>
+  </si>
+  <si>
+    <t>laheriasarai b</t>
+  </si>
+  <si>
+    <t>MS. SANGETHA</t>
+  </si>
+  <si>
+    <t>- upcountry ch</t>
+  </si>
+  <si>
+    <t>- - defsys asc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gopal krishna </t>
   </si>
   <si>
     <t>31920210000502</t>
@@ -235,7 +259,7 @@
     <t>914010034885456</t>
   </si>
   <si>
-    <t>No.063091800018062</t>
+    <t>063091800018062</t>
   </si>
   <si>
     <t>913010023484577</t>
@@ -455,6 +479,9 @@
   </si>
   <si>
     <t>ALLA0211950</t>
+  </si>
+  <si>
+    <t>BARB0KADODA</t>
   </si>
   <si>
     <t>BKID0000071</t>
@@ -867,16 +894,16 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -890,16 +917,16 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -913,16 +940,16 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -936,16 +963,16 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -959,16 +986,16 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -982,16 +1009,16 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1005,16 +1032,16 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1028,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1051,16 +1078,16 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1074,16 +1101,16 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1097,16 +1124,16 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,16 +1147,16 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1143,16 +1170,16 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1166,16 +1193,16 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1189,16 +1216,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1209,19 +1236,19 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1232,19 +1259,19 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1255,19 +1282,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1278,19 +1305,19 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1304,16 +1331,16 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1324,19 +1351,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1347,19 +1374,19 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1373,16 +1400,16 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1393,19 +1420,19 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1416,19 +1443,19 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1439,19 +1466,19 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1462,19 +1489,19 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1485,19 +1512,19 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1508,19 +1535,19 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1531,19 +1558,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1554,19 +1581,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1580,16 +1607,16 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1600,19 +1627,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1623,19 +1650,19 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1646,19 +1673,19 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1672,16 +1699,16 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1692,19 +1719,19 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1715,19 +1742,19 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1738,19 +1765,19 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1761,19 +1788,19 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
